--- a/biology/Zoologie/Diprotodontia/Diprotodontia.xlsx
+++ b/biology/Zoologie/Diprotodontia/Diprotodontia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diprotodontes (Diprotodontia) sont un ordre de mammifères marsupiaux, le plus représenté. Ils comptent douze familles rassemblant 117 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Di-, deux, -proto-, avant, devant, -donta, dent.
 Leur nom provient de leurs incisives de grande taille, à l'extrémité antérieure de la mandibule.
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur caractéristique principale est qu'ils ne possèdent qu'une seule paire de larges incisives sur la mâchoire inférieure. Ils sont en outre  syndactyles : les doigts 2 et 3 de leurs membres postérieurs sont complètement fusionnés à l'exception des griffes.
 La plupart des diprotodontes ont 3 paires d'incisives sur la mâchoire supérieure mais les Vombatidae n'en ont plus qu'une. Les canines inférieures sont absentes alors que les canines supérieures sont variables en taille et en forme.
@@ -576,7 +592,9 @@
           <t>Liste des sous-ordres, super-familles et familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon ITIS :
 sous-ordre Vombatiformes Burnett, 1830
